--- a/src/main/java/com/sa/test/data/TestData.xlsx
+++ b/src/main/java/com/sa/test/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15420" windowHeight="2280" tabRatio="409" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15675" windowHeight="5310" tabRatio="908"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="AdminProfile" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="D1:L6"/>
+  <oleSize ref="A1:M16"/>
 </workbook>
 </file>
 
@@ -992,13 +992,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1617,7 +1617,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2311,7 +2311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/com/sa/test/data/TestData.xlsx
+++ b/src/main/java/com/sa/test/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15675" windowHeight="5310" tabRatio="908"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15675" windowHeight="5310" tabRatio="908" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,11 @@
     <sheet name="AdminProfile" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:M16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="180">
   <si>
     <t>Login</t>
   </si>
@@ -216,9 +215,6 @@
     <t>SampleDHS</t>
   </si>
   <si>
-    <t>4508078</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -562,6 +558,12 @@
   </si>
   <si>
     <t>12345678</t>
+  </si>
+  <si>
+    <t>ELOPAdmin092306!</t>
+  </si>
+  <si>
+    <t>3057527</t>
   </si>
 </sst>
 </file>
@@ -992,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1037,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1219,7 +1221,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -1227,236 +1229,236 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>106</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>107</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>108</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>109</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>110</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>111</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>112</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>113</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>114</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>115</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>116</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>117</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>118</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>119</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>120</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>121</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>122</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>123</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>124</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>125</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>126</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>127</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>128</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>129</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>130</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>131</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>132</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>133</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>134</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>135</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>136</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>137</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>138</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>139</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>140</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="27.75">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
         <v>142</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>143</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" t="s">
-        <v>145</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" t="s">
         <v>147</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" t="s">
         <v>148</v>
       </c>
-      <c r="J4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>150</v>
-      </c>
       <c r="M4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P4">
         <v>10</v>
       </c>
       <c r="Q4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R4" t="s">
         <v>152</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T4" t="s">
+        <v>152</v>
+      </c>
+      <c r="U4" t="s">
+        <v>152</v>
+      </c>
+      <c r="V4" t="s">
+        <v>152</v>
+      </c>
+      <c r="W4" t="s">
+        <v>152</v>
+      </c>
+      <c r="X4" t="s">
         <v>153</v>
       </c>
-      <c r="S4" t="s">
-        <v>153</v>
-      </c>
-      <c r="T4" t="s">
-        <v>153</v>
-      </c>
-      <c r="U4" t="s">
-        <v>153</v>
-      </c>
-      <c r="V4" t="s">
-        <v>153</v>
-      </c>
-      <c r="W4" t="s">
-        <v>153</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>154</v>
       </c>
-      <c r="Y4" t="s">
-        <v>155</v>
-      </c>
       <c r="Z4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AB4">
         <v>1</v>
       </c>
       <c r="AC4" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD4" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AE4" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="AE4" s="13" t="s">
+      <c r="AF4" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="AF4" s="13" t="s">
+      <c r="AG4" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="AG4" s="13" t="s">
+      <c r="AH4" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="AH4" s="13" t="s">
+      <c r="AI4" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="AI4" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="AJ4" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AK4" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL4" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:38">
       <c r="L6" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="23.25">
@@ -1534,7 +1536,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1542,51 +1544,51 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
         <v>164</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>165</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>166</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>167</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>168</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>169</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>170</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>171</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>172</v>
-      </c>
-      <c r="K3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" t="s">
         <v>174</v>
       </c>
-      <c r="C4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>175</v>
-      </c>
-      <c r="E4" t="s">
-        <v>176</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
@@ -1595,16 +1597,16 @@
         <v>24</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +1871,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J4" t="s">
         <v>40</v>
@@ -2022,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2071,13 +2073,13 @@
         <v>59</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2128,7 +2130,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2136,45 +2138,45 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>69</v>
       </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
       <c r="D4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2214,7 +2216,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2222,27 +2224,27 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2277,7 +2279,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2285,21 +2287,21 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
         <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
         <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2374,7 +2376,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2382,81 +2384,81 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
         <v>87</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>88</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>89</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>90</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>91</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>92</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>93</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>94</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>95</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>96</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>97</v>
-      </c>
-      <c r="M3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
         <v>99</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
       </c>
       <c r="D4" s="8">
         <v>0.29166666666666669</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
